--- a/pidis/expdata/10004.xlsx
+++ b/pidis/expdata/10004.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD423F-1594-794F-AF69-FA72338233D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="32420" yWindow="1460" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -44,12 +54,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A1p(stat)_u</t>
-  </si>
-  <si>
-    <t>A1p(sys)</t>
-  </si>
-  <si>
     <t>A2_u</t>
   </si>
   <si>
@@ -78,13 +82,19 @@
   </si>
   <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -97,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,10 +144,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -421,7 +440,7 @@
     <col min="3" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,47 +457,47 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B2" s="3">
         <v>3.5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
         <v>2.7E-2</v>
       </c>
       <c r="F2" s="3">
@@ -503,26 +522,27 @@
         <v>1E-3</v>
       </c>
       <c r="M2" s="3">
-        <v>3.0000000000000001E-3</v>
+        <f>E2*0.096</f>
+        <v>2.5920000000000001E-3</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B3" s="3">
         <v>4.5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="F3" s="3">
@@ -547,26 +567,27 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M3" s="3">
-        <v>8.9999999999999993E-3</v>
+        <f t="shared" ref="M3:M11" si="0">E3*0.096</f>
+        <v>8.7360000000000007E-3</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F4" s="3">
@@ -591,26 +612,27 @@
         <v>1E-3</v>
       </c>
       <c r="M4" s="3">
-        <v>2E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.496E-3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>0.05</v>
       </c>
       <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F5" s="3">
@@ -635,26 +657,27 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M5" s="3">
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.8720000000000005E-3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>7.8E-2</v>
       </c>
       <c r="B6" s="3">
         <v>10.3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.14099999999999999</v>
       </c>
       <c r="F6" s="3">
@@ -679,26 +702,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M6" s="3">
-        <v>1.4E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3535999999999999E-2</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>0.124</v>
       </c>
       <c r="B7" s="3">
         <v>12.9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.18099999999999999</v>
       </c>
       <c r="F7" s="3">
@@ -723,26 +747,27 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M7" s="3">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7375999999999999E-2</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="B8" s="3">
         <v>15.2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.36299999999999999</v>
       </c>
       <c r="F8" s="3">
@@ -767,26 +792,27 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M8" s="3">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4847999999999997E-2</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>0.248</v>
       </c>
       <c r="B9" s="3">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.45800000000000002</v>
       </c>
       <c r="F9" s="3">
@@ -811,26 +837,27 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="M9" s="3">
-        <v>4.3999999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3968E-2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>0.34399999999999997</v>
       </c>
       <c r="B10" s="3">
         <v>22.5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F10" s="3">
@@ -855,26 +882,27 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M10" s="3">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>5.04E-2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>0.46600000000000003</v>
       </c>
       <c r="B11" s="3">
         <v>29.5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.63800000000000001</v>
       </c>
       <c r="F11" s="3">
@@ -899,10 +927,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M11" s="3">
-        <v>6.0999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1248000000000004E-2</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
